--- a/testFiles/TestData.xlsx
+++ b/testFiles/TestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303639\eclipse-workspace\hackathon\testFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6060CB91-050A-4898-A274-F6CDD448B7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33A8696-27BD-477A-8E96-88426F998456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CCA4E1CD-FF9D-4CD4-B2D1-E3BACCC0835E}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -159,84 +159,18 @@
     <t>Banashankari 2nd Stage,Bangalore</t>
   </si>
   <si>
-    <t>Dr. Nagamani A.C</t>
-  </si>
-  <si>
     <t>24 years experience overall</t>
   </si>
   <si>
-    <t>Koramangala 5 Block,Bangalore</t>
-  </si>
-  <si>
     <t>Dr. Ashwin M Daware</t>
   </si>
   <si>
-    <t>21 years experience overall</t>
-  </si>
-  <si>
-    <t>Dr. Nataraja Setty</t>
-  </si>
-  <si>
-    <t>JP Nagar 6 Phase,Bangalore</t>
-  </si>
-  <si>
-    <t>Dr. N Praveen Kumar</t>
-  </si>
-  <si>
-    <t>General Physician</t>
-  </si>
-  <si>
-    <t>17 years experience overall</t>
-  </si>
-  <si>
-    <t>Yelahanka,Bangalore</t>
-  </si>
-  <si>
     <t>Sasi</t>
   </si>
   <si>
-    <t>sasi.com</t>
-  </si>
-  <si>
-    <t>sasi@.com</t>
-  </si>
-  <si>
-    <t>sasi_mail</t>
-  </si>
-  <si>
-    <t>sasi_mail@gmail.com</t>
-  </si>
-  <si>
-    <t>Dr. P. Padmakumar</t>
-  </si>
-  <si>
-    <t>47 years experience overall</t>
-  </si>
-  <si>
-    <t>Old Airport Road,Bangalore</t>
-  </si>
-  <si>
-    <t>Dr. B.S. Chakrapani</t>
-  </si>
-  <si>
-    <t>39 years experience overall</t>
-  </si>
-  <si>
-    <t>Dr. B. Ramesh</t>
-  </si>
-  <si>
-    <t>38 years experience overall</t>
-  </si>
-  <si>
     <t>Bannerghatta Road,Bangalore</t>
   </si>
   <si>
-    <t>Dr. Shyam Sunder K R</t>
-  </si>
-  <si>
-    <t>37 years experience overall</t>
-  </si>
-  <si>
     <t>Jayanagar,Bangalore</t>
   </si>
   <si>
@@ -249,9 +183,6 @@
     <t>Seshadripuram,Bangalore</t>
   </si>
   <si>
-    <t>Dr. A Naga Srinivaas</t>
-  </si>
-  <si>
     <t>Dr. Raghunandan</t>
   </si>
   <si>
@@ -261,47 +192,22 @@
     <t>Dr. C.M Nagesh</t>
   </si>
   <si>
-    <t>Dr. Ramnaresh Soudri</t>
-  </si>
-  <si>
-    <t>7 years experience overall</t>
-  </si>
-  <si>
-    <t>HSR Layout,Bangalore</t>
-  </si>
-  <si>
-    <t>Dr. Devananda N.S</t>
-  </si>
-  <si>
-    <t>33 years experience overall</t>
-  </si>
-  <si>
-    <t>Dr. Girish B Navasundi</t>
-  </si>
-  <si>
-    <t>26 years experience overall</t>
-  </si>
-  <si>
-    <t>Dr. S. S. Iyengar</t>
-  </si>
-  <si>
-    <t>55 years experience overall</t>
-  </si>
-  <si>
-    <t>Dr. K. S. S. Bhat</t>
-  </si>
-  <si>
-    <t>44 years experience overall</t>
-  </si>
-  <si>
-    <t>Dr. Venkatesh T K</t>
+    <t>vijay_mail@gmail.com</t>
+  </si>
+  <si>
+    <t>vijay.com</t>
+  </si>
+  <si>
+    <t>vijay@.com</t>
+  </si>
+  <si>
+    <t>vijay_mail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -671,16 +577,16 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="14.26953125"/>
-    <col min="3" max="3" customWidth="true" width="16.1796875"/>
-    <col min="4" max="4" customWidth="true" width="16.90625"/>
-    <col min="5" max="5" customWidth="true" width="14.26953125"/>
-    <col min="6" max="6" customWidth="true" width="21.6328125"/>
+    <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16.90625" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="21.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -704,10 +610,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s" s="0">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3">
@@ -716,11 +622,11 @@
       <c r="D2" s="3">
         <v>6000000000</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>52</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -741,7 +647,7 @@
       <c r="D4" s="3">
         <v>9999999998</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -749,7 +655,7 @@
       <c r="D5" s="3">
         <v>9999999999</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -771,190 +677,190 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="B2" t="s" s="0">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="E2" t="s" s="0">
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s" s="0">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="E3" t="s" s="0">
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="B4" t="s" s="0">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="E4" t="s" s="0">
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="B5" t="s" s="0">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="E5" t="s" s="0">
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="B6" t="s" s="0">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="E6" t="s" s="0">
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="B7" t="s" s="0">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="D7" t="s" s="0">
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8">
-      <c r="E8" t="s" s="0">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9">
-      <c r="E9" t="s" s="0">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10">
-      <c r="E10" t="s" s="0">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11">
-      <c r="E11" t="s" s="0">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12">
-      <c r="E12" t="s" s="0">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13">
-      <c r="E13" t="s" s="0">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14">
-      <c r="E14" t="s" s="0">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15">
-      <c r="E15" t="s" s="0">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16">
-      <c r="E16" t="s" s="0">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17">
-      <c r="E17" t="s" s="0">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18">
-      <c r="E18" t="s" s="0">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19">
-      <c r="E19" t="s" s="0">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20">
-      <c r="E20" t="s" s="0">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
         <v>33</v>
       </c>
     </row>
